--- a/resources/experiment 1/predictions/multiple/RandomForestRegressor/average time/Nefropatías.xlsx
+++ b/resources/experiment 1/predictions/multiple/RandomForestRegressor/average time/Nefropatías.xlsx
@@ -482,2061 +482,2061 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12.64259083883635</v>
+        <v>12.67088366599441</v>
       </c>
       <c r="B2" t="n">
-        <v>8.872803733179401</v>
+        <v>8.910233507723946</v>
       </c>
       <c r="C2" t="n">
-        <v>17.30529235219911</v>
+        <v>17.38955972044658</v>
       </c>
       <c r="D2" t="n">
-        <v>18.90089596102024</v>
+        <v>18.90514790300132</v>
       </c>
       <c r="E2" t="n">
-        <v>14.44086788149258</v>
+        <v>14.32126568545897</v>
       </c>
       <c r="F2" t="n">
-        <v>23.5953656511512</v>
+        <v>23.51675244773748</v>
       </c>
       <c r="G2" t="n">
-        <v>22.60413840310004</v>
+        <v>22.61926030881753</v>
       </c>
       <c r="H2" t="n">
-        <v>18.58536255258086</v>
+        <v>18.76323687754738</v>
       </c>
       <c r="I2" t="n">
-        <v>26.85382658721238</v>
+        <v>26.80054931359744</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>17.16075308857965</v>
+        <v>17.29679582622606</v>
       </c>
       <c r="B3" t="n">
-        <v>14.88407916266061</v>
+        <v>15.02422388752276</v>
       </c>
       <c r="C3" t="n">
-        <v>19.83589660982966</v>
+        <v>19.9774567154384</v>
       </c>
       <c r="D3" t="n">
-        <v>23.837257613795</v>
+        <v>24.0446824194084</v>
       </c>
       <c r="E3" t="n">
-        <v>15.535088571076</v>
+        <v>15.27583669985763</v>
       </c>
       <c r="F3" t="n">
-        <v>33.07752355922591</v>
+        <v>32.86940093924006</v>
       </c>
       <c r="G3" t="n">
-        <v>23.97260309540722</v>
+        <v>24.06281229812963</v>
       </c>
       <c r="H3" t="n">
-        <v>20.33512915470196</v>
+        <v>20.41781506303281</v>
       </c>
       <c r="I3" t="n">
-        <v>27.43770376176206</v>
+        <v>27.56715843205523</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>16.43858033131754</v>
+        <v>16.32178410157231</v>
       </c>
       <c r="B4" t="n">
-        <v>14.24830285577699</v>
+        <v>14.08677326104626</v>
       </c>
       <c r="C4" t="n">
-        <v>18.84575021968553</v>
+        <v>18.71313384037362</v>
       </c>
       <c r="D4" t="n">
-        <v>23.67271949954707</v>
+        <v>23.61088515509455</v>
       </c>
       <c r="E4" t="n">
-        <v>19.75820241559442</v>
+        <v>19.88596880944123</v>
       </c>
       <c r="F4" t="n">
-        <v>27.93421947016954</v>
+        <v>27.79874801482726</v>
       </c>
       <c r="G4" t="n">
-        <v>24.00609803533084</v>
+        <v>24.05734780422511</v>
       </c>
       <c r="H4" t="n">
-        <v>21.3369973464717</v>
+        <v>21.47003238745445</v>
       </c>
       <c r="I4" t="n">
-        <v>27.18464863525269</v>
+        <v>27.01755985340901</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20.65085804053161</v>
+        <v>20.68768245697351</v>
       </c>
       <c r="B5" t="n">
-        <v>18.10930929387867</v>
+        <v>18.21111443421503</v>
       </c>
       <c r="C5" t="n">
-        <v>23.5454341205436</v>
+        <v>23.57685306250557</v>
       </c>
       <c r="D5" t="n">
-        <v>29.09784169978551</v>
+        <v>29.17863098445781</v>
       </c>
       <c r="E5" t="n">
-        <v>20.72621575333147</v>
+        <v>20.68732493380909</v>
       </c>
       <c r="F5" t="n">
-        <v>38.88071748925741</v>
+        <v>38.89319879509092</v>
       </c>
       <c r="G5" t="n">
-        <v>29.06753256954414</v>
+        <v>29.08129699669795</v>
       </c>
       <c r="H5" t="n">
-        <v>25.54505087476779</v>
+        <v>25.47078410164302</v>
       </c>
       <c r="I5" t="n">
-        <v>33.12409714546828</v>
+        <v>33.18423485774282</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>18.47509154603108</v>
+        <v>18.70987535456972</v>
       </c>
       <c r="B6" t="n">
-        <v>14.82743569308599</v>
+        <v>14.98983368005194</v>
       </c>
       <c r="C6" t="n">
-        <v>22.65719538272615</v>
+        <v>22.69352918207086</v>
       </c>
       <c r="D6" t="n">
-        <v>29.03347217294565</v>
+        <v>29.16520795210733</v>
       </c>
       <c r="E6" t="n">
-        <v>25.73056490853407</v>
+        <v>25.8649477998722</v>
       </c>
       <c r="F6" t="n">
-        <v>32.57996733210752</v>
+        <v>32.71958531149857</v>
       </c>
       <c r="G6" t="n">
-        <v>29.88946054008861</v>
+        <v>30.22835944108122</v>
       </c>
       <c r="H6" t="n">
-        <v>27.08304097228671</v>
+        <v>27.33607300646017</v>
       </c>
       <c r="I6" t="n">
-        <v>32.66123541714514</v>
+        <v>33.24191552998743</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>11.93605138636925</v>
+        <v>11.92058878709637</v>
       </c>
       <c r="B7" t="n">
-        <v>8.568812748640664</v>
+        <v>8.520601783516025</v>
       </c>
       <c r="C7" t="n">
-        <v>15.39178859006926</v>
+        <v>15.26266162895115</v>
       </c>
       <c r="D7" t="n">
-        <v>17.5595133826935</v>
+        <v>17.52466009299908</v>
       </c>
       <c r="E7" t="n">
-        <v>14.09714354317062</v>
+        <v>14.0650803849242</v>
       </c>
       <c r="F7" t="n">
-        <v>21.45214688578999</v>
+        <v>21.30585741340397</v>
       </c>
       <c r="G7" t="n">
-        <v>20.62647726039735</v>
+        <v>20.62051294159064</v>
       </c>
       <c r="H7" t="n">
-        <v>17.56411313724438</v>
+        <v>17.53936437463846</v>
       </c>
       <c r="I7" t="n">
-        <v>24.386447969139</v>
+        <v>24.24535206762966</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4.469010359491546</v>
+        <v>4.45071309157971</v>
       </c>
       <c r="B8" t="n">
-        <v>3.01443052394424</v>
+        <v>3.057922351774988</v>
       </c>
       <c r="C8" t="n">
-        <v>6.422316748629105</v>
+        <v>6.406694365709483</v>
       </c>
       <c r="D8" t="n">
-        <v>5.440309458204335</v>
+        <v>5.432750926736886</v>
       </c>
       <c r="E8" t="n">
-        <v>4.151140810316245</v>
+        <v>4.150406876731918</v>
       </c>
       <c r="F8" t="n">
-        <v>7.133112609640794</v>
+        <v>7.111933448024176</v>
       </c>
       <c r="G8" t="n">
-        <v>10.78304531738485</v>
+        <v>10.75844751802228</v>
       </c>
       <c r="H8" t="n">
-        <v>8.304535557127895</v>
+        <v>8.302945801369095</v>
       </c>
       <c r="I8" t="n">
-        <v>13.93255776218422</v>
+        <v>13.92987479262075</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>17.39987549188367</v>
+        <v>17.40381822347692</v>
       </c>
       <c r="B9" t="n">
-        <v>14.15778690987681</v>
+        <v>14.1590195859202</v>
       </c>
       <c r="C9" t="n">
-        <v>20.75443096981947</v>
+        <v>20.61152123895483</v>
       </c>
       <c r="D9" t="n">
-        <v>26.70621479447541</v>
+        <v>26.7144269007331</v>
       </c>
       <c r="E9" t="n">
-        <v>24.02461106130096</v>
+        <v>23.80893134420343</v>
       </c>
       <c r="F9" t="n">
-        <v>29.91721346402854</v>
+        <v>29.76905971323005</v>
       </c>
       <c r="G9" t="n">
-        <v>27.76824628107374</v>
+        <v>27.77640126911401</v>
       </c>
       <c r="H9" t="n">
-        <v>25.26257366295023</v>
+        <v>25.21706078660831</v>
       </c>
       <c r="I9" t="n">
-        <v>30.25539692123219</v>
+        <v>30.16294832611294</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.582779390437032</v>
+        <v>4.555784492172689</v>
       </c>
       <c r="B10" t="n">
-        <v>3.102202266500577</v>
+        <v>3.050033098237541</v>
       </c>
       <c r="C10" t="n">
-        <v>6.544518563605676</v>
+        <v>6.470226027391745</v>
       </c>
       <c r="D10" t="n">
-        <v>5.548982920451476</v>
+        <v>5.523674747501552</v>
       </c>
       <c r="E10" t="n">
-        <v>4.238214688558035</v>
+        <v>4.172785707904717</v>
       </c>
       <c r="F10" t="n">
-        <v>7.253937017105892</v>
+        <v>7.217087007545042</v>
       </c>
       <c r="G10" t="n">
-        <v>10.93593573916169</v>
+        <v>10.89559647006911</v>
       </c>
       <c r="H10" t="n">
-        <v>8.512292113610927</v>
+        <v>8.456190354435421</v>
       </c>
       <c r="I10" t="n">
-        <v>14.09847653028567</v>
+        <v>14.05410594139841</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10.00758929893002</v>
+        <v>10.04863939287011</v>
       </c>
       <c r="B11" t="n">
-        <v>6.791487866733806</v>
+        <v>6.863431583777828</v>
       </c>
       <c r="C11" t="n">
-        <v>14.28525912082848</v>
+        <v>14.33074334061999</v>
       </c>
       <c r="D11" t="n">
-        <v>13.59588892157888</v>
+        <v>13.81753617769426</v>
       </c>
       <c r="E11" t="n">
-        <v>10.38758288339042</v>
+        <v>10.23717577939631</v>
       </c>
       <c r="F11" t="n">
-        <v>17.54203834918605</v>
+        <v>17.61878386531891</v>
       </c>
       <c r="G11" t="n">
-        <v>18.53581321113359</v>
+        <v>18.737006410104</v>
       </c>
       <c r="H11" t="n">
-        <v>14.88281061484332</v>
+        <v>14.91788590742288</v>
       </c>
       <c r="I11" t="n">
-        <v>22.72687791308978</v>
+        <v>22.82702199513447</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>16.76328770003058</v>
+        <v>16.80297056841154</v>
       </c>
       <c r="B12" t="n">
-        <v>12.32167379536961</v>
+        <v>12.39822595531375</v>
       </c>
       <c r="C12" t="n">
-        <v>21.71283925375038</v>
+        <v>21.77253365892751</v>
       </c>
       <c r="D12" t="n">
-        <v>26.84807134587514</v>
+        <v>26.92822170656931</v>
       </c>
       <c r="E12" t="n">
-        <v>21.70338777414058</v>
+        <v>21.87572507988555</v>
       </c>
       <c r="F12" t="n">
-        <v>31.89438753353233</v>
+        <v>32.07037312113678</v>
       </c>
       <c r="G12" t="n">
-        <v>29.40608587991258</v>
+        <v>29.39393718702663</v>
       </c>
       <c r="H12" t="n">
-        <v>24.68507578935937</v>
+        <v>24.82464349364245</v>
       </c>
       <c r="I12" t="n">
-        <v>33.80038196101018</v>
+        <v>33.71598378914786</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5.95804775872817</v>
+        <v>5.977928608623037</v>
       </c>
       <c r="B13" t="n">
-        <v>4.009559324950934</v>
+        <v>4.016788462513444</v>
       </c>
       <c r="C13" t="n">
-        <v>8.841421579797197</v>
+        <v>8.834637581647925</v>
       </c>
       <c r="D13" t="n">
-        <v>7.329522845074537</v>
+        <v>7.336508869983403</v>
       </c>
       <c r="E13" t="n">
-        <v>5.482570707893385</v>
+        <v>5.461290051928172</v>
       </c>
       <c r="F13" t="n">
-        <v>9.900617440800865</v>
+        <v>9.925369478321324</v>
       </c>
       <c r="G13" t="n">
-        <v>12.84814989358583</v>
+        <v>12.82797285996938</v>
       </c>
       <c r="H13" t="n">
-        <v>9.949072630636906</v>
+        <v>9.896068416545226</v>
       </c>
       <c r="I13" t="n">
-        <v>16.91982609120942</v>
+        <v>16.88665183363923</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7.771852415930534</v>
+        <v>7.790898887829055</v>
       </c>
       <c r="B14" t="n">
-        <v>5.32273550074285</v>
+        <v>5.347710474667032</v>
       </c>
       <c r="C14" t="n">
-        <v>11.16830655814252</v>
+        <v>11.22607356238097</v>
       </c>
       <c r="D14" t="n">
-        <v>9.934757784877991</v>
+        <v>9.957682879513944</v>
       </c>
       <c r="E14" t="n">
-        <v>7.358639121556398</v>
+        <v>7.345852574322078</v>
       </c>
       <c r="F14" t="n">
-        <v>13.43145742725396</v>
+        <v>13.34912007396659</v>
       </c>
       <c r="G14" t="n">
-        <v>15.1758715881065</v>
+        <v>15.22071794575063</v>
       </c>
       <c r="H14" t="n">
-        <v>11.88167045533006</v>
+        <v>11.84553453985959</v>
       </c>
       <c r="I14" t="n">
-        <v>19.41777598501777</v>
+        <v>19.40680435000535</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>23.83765983935126</v>
+        <v>23.83217580861775</v>
       </c>
       <c r="B15" t="n">
-        <v>20.53697856159996</v>
+        <v>20.5399001169108</v>
       </c>
       <c r="C15" t="n">
-        <v>27.4648328576625</v>
+        <v>27.47537260414814</v>
       </c>
       <c r="D15" t="n">
-        <v>34.16632521887582</v>
+        <v>34.35071005565113</v>
       </c>
       <c r="E15" t="n">
-        <v>24.34927451658531</v>
+        <v>24.1001584606597</v>
       </c>
       <c r="F15" t="n">
-        <v>44.48950808377183</v>
+        <v>44.52147883876394</v>
       </c>
       <c r="G15" t="n">
-        <v>33.97181355382484</v>
+        <v>34.01420988545987</v>
       </c>
       <c r="H15" t="n">
-        <v>30.33928234046575</v>
+        <v>30.0124062474027</v>
       </c>
       <c r="I15" t="n">
-        <v>37.98068300152483</v>
+        <v>37.80223769157946</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>18.46469756270005</v>
+        <v>18.68642791063535</v>
       </c>
       <c r="B16" t="n">
-        <v>14.8100150457448</v>
+        <v>14.97569602976686</v>
       </c>
       <c r="C16" t="n">
-        <v>22.6525208715753</v>
+        <v>22.70322782973158</v>
       </c>
       <c r="D16" t="n">
-        <v>29.03468355379539</v>
+        <v>29.11328333474252</v>
       </c>
       <c r="E16" t="n">
-        <v>25.71852345047752</v>
+        <v>25.70124100937</v>
       </c>
       <c r="F16" t="n">
-        <v>32.62732898766403</v>
+        <v>32.70828031658561</v>
       </c>
       <c r="G16" t="n">
-        <v>29.88245966387995</v>
+        <v>30.1837535933482</v>
       </c>
       <c r="H16" t="n">
-        <v>27.11516371123702</v>
+        <v>27.1958135808544</v>
       </c>
       <c r="I16" t="n">
-        <v>32.66197112446865</v>
+        <v>33.09908631550901</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>16.77420339486439</v>
+        <v>16.70708375951422</v>
       </c>
       <c r="B17" t="n">
-        <v>12.18760951924888</v>
+        <v>12.41128471392102</v>
       </c>
       <c r="C17" t="n">
-        <v>21.89964128663296</v>
+        <v>21.91559536155624</v>
       </c>
       <c r="D17" t="n">
-        <v>26.64633416504049</v>
+        <v>26.66949634324027</v>
       </c>
       <c r="E17" t="n">
-        <v>21.77867585658137</v>
+        <v>21.74569300995076</v>
       </c>
       <c r="F17" t="n">
-        <v>31.7581862745201</v>
+        <v>31.86109045114919</v>
       </c>
       <c r="G17" t="n">
-        <v>29.24206910440948</v>
+        <v>29.2272305245506</v>
       </c>
       <c r="H17" t="n">
-        <v>24.56644803077217</v>
+        <v>24.72689082643598</v>
       </c>
       <c r="I17" t="n">
-        <v>33.5510531628212</v>
+        <v>33.55912961753545</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>16.4219050116581</v>
+        <v>16.31899610952419</v>
       </c>
       <c r="B18" t="n">
-        <v>14.24194848654911</v>
+        <v>14.10842309133689</v>
       </c>
       <c r="C18" t="n">
-        <v>18.82093725752829</v>
+        <v>18.70716841418377</v>
       </c>
       <c r="D18" t="n">
-        <v>23.72642159248429</v>
+        <v>23.61304092996873</v>
       </c>
       <c r="E18" t="n">
-        <v>19.91449146021264</v>
+        <v>19.89426977294827</v>
       </c>
       <c r="F18" t="n">
-        <v>27.91519469545844</v>
+        <v>27.7953446948628</v>
       </c>
       <c r="G18" t="n">
-        <v>24.08571952705999</v>
+        <v>24.06076402540949</v>
       </c>
       <c r="H18" t="n">
-        <v>21.03841094639333</v>
+        <v>21.4546852003097</v>
       </c>
       <c r="I18" t="n">
-        <v>27.44249868683376</v>
+        <v>27.02472735521075</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>10.13794702849526</v>
+        <v>10.1607858156229</v>
       </c>
       <c r="B19" t="n">
-        <v>6.860202905144315</v>
+        <v>6.888430101379069</v>
       </c>
       <c r="C19" t="n">
-        <v>14.28286524137325</v>
+        <v>14.30157434124992</v>
       </c>
       <c r="D19" t="n">
-        <v>14.02657171360104</v>
+        <v>14.06505866949654</v>
       </c>
       <c r="E19" t="n">
-        <v>10.46476638342573</v>
+        <v>10.4494575378486</v>
       </c>
       <c r="F19" t="n">
-        <v>18.04318424193022</v>
+        <v>18.05143001672964</v>
       </c>
       <c r="G19" t="n">
-        <v>19.20233309484026</v>
+        <v>19.19331166708532</v>
       </c>
       <c r="H19" t="n">
-        <v>15.03419547900708</v>
+        <v>15.01009519585585</v>
       </c>
       <c r="I19" t="n">
-        <v>24.03542093072865</v>
+        <v>23.98447043795209</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>20.2772901460567</v>
+        <v>20.31471380700062</v>
       </c>
       <c r="B20" t="n">
-        <v>16.22830716014217</v>
+        <v>16.17195222762941</v>
       </c>
       <c r="C20" t="n">
-        <v>24.76751160315494</v>
+        <v>24.73652409106552</v>
       </c>
       <c r="D20" t="n">
-        <v>32.33578788059545</v>
+        <v>32.40607121613969</v>
       </c>
       <c r="E20" t="n">
-        <v>28.23399995391241</v>
+        <v>28.50577211276035</v>
       </c>
       <c r="F20" t="n">
-        <v>36.74050932434861</v>
+        <v>36.78164068409868</v>
       </c>
       <c r="G20" t="n">
-        <v>33.55385135580412</v>
+        <v>33.58282665725635</v>
       </c>
       <c r="H20" t="n">
-        <v>30.23654968169184</v>
+        <v>30.35645023648164</v>
       </c>
       <c r="I20" t="n">
-        <v>37.35800013278084</v>
+        <v>37.35221047801411</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>22.15043187557629</v>
+        <v>22.12301206934807</v>
       </c>
       <c r="B21" t="n">
-        <v>18.61044865331706</v>
+        <v>18.66464984230876</v>
       </c>
       <c r="C21" t="n">
-        <v>26.17161348836317</v>
+        <v>26.21292228000636</v>
       </c>
       <c r="D21" t="n">
-        <v>33.35940212693497</v>
+        <v>33.3489513241941</v>
       </c>
       <c r="E21" t="n">
-        <v>27.90524709398364</v>
+        <v>27.91604824725813</v>
       </c>
       <c r="F21" t="n">
-        <v>38.23332346195922</v>
+        <v>38.63855277791666</v>
       </c>
       <c r="G21" t="n">
-        <v>33.64891608990586</v>
+        <v>33.56096869728945</v>
       </c>
       <c r="H21" t="n">
-        <v>30.30905025584988</v>
+        <v>30.60229130968487</v>
       </c>
       <c r="I21" t="n">
-        <v>37.12428034206035</v>
+        <v>36.86619371703514</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4.596350196400655</v>
+        <v>4.570376426744898</v>
       </c>
       <c r="B22" t="n">
-        <v>3.057044490781447</v>
+        <v>3.06745981494053</v>
       </c>
       <c r="C22" t="n">
-        <v>6.698551042235446</v>
+        <v>6.70219178948665</v>
       </c>
       <c r="D22" t="n">
-        <v>5.563891147879329</v>
+        <v>5.55042950451218</v>
       </c>
       <c r="E22" t="n">
-        <v>4.220935101039212</v>
+        <v>4.233222738331535</v>
       </c>
       <c r="F22" t="n">
-        <v>7.359734023948593</v>
+        <v>7.382522193950077</v>
       </c>
       <c r="G22" t="n">
-        <v>11.19035892476191</v>
+        <v>11.1654422003591</v>
       </c>
       <c r="H22" t="n">
-        <v>8.599684022627962</v>
+        <v>8.544497637162507</v>
       </c>
       <c r="I22" t="n">
-        <v>14.78006793359363</v>
+        <v>14.81462735921982</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>25.41067582691829</v>
+        <v>25.44549829206094</v>
       </c>
       <c r="B23" t="n">
-        <v>22.307969764664</v>
+        <v>22.15113632535573</v>
       </c>
       <c r="C23" t="n">
-        <v>28.60732899963218</v>
+        <v>28.91616954721295</v>
       </c>
       <c r="D23" t="n">
-        <v>36.6818130844141</v>
+        <v>36.87912321073794</v>
       </c>
       <c r="E23" t="n">
-        <v>26.32204390871995</v>
+        <v>25.95599871340289</v>
       </c>
       <c r="F23" t="n">
-        <v>47.39861405916248</v>
+        <v>46.72099254238129</v>
       </c>
       <c r="G23" t="n">
-        <v>36.35955657636393</v>
+        <v>36.51177464890835</v>
       </c>
       <c r="H23" t="n">
-        <v>31.97985817754688</v>
+        <v>31.89953352059986</v>
       </c>
       <c r="I23" t="n">
-        <v>40.73055067215632</v>
+        <v>40.89281123687579</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>18.47068415972966</v>
+        <v>18.70986482351873</v>
       </c>
       <c r="B24" t="n">
-        <v>14.99383058245565</v>
+        <v>15.04876511049603</v>
       </c>
       <c r="C24" t="n">
-        <v>22.74510181713786</v>
+        <v>22.77169631099157</v>
       </c>
       <c r="D24" t="n">
-        <v>29.03606301569479</v>
+        <v>29.1339752632334</v>
       </c>
       <c r="E24" t="n">
-        <v>25.78950359108732</v>
+        <v>25.79255524384699</v>
       </c>
       <c r="F24" t="n">
-        <v>32.66648826006904</v>
+        <v>32.67918631478053</v>
       </c>
       <c r="G24" t="n">
-        <v>29.88245966387995</v>
+        <v>30.21217310132185</v>
       </c>
       <c r="H24" t="n">
-        <v>27.12313858708957</v>
+        <v>27.27357725017841</v>
       </c>
       <c r="I24" t="n">
-        <v>32.70253358240291</v>
+        <v>33.19565348308853</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>16.297781296074</v>
+        <v>16.31407550998504</v>
       </c>
       <c r="B25" t="n">
-        <v>13.40486123045467</v>
+        <v>13.48696385769112</v>
       </c>
       <c r="C25" t="n">
-        <v>19.29824909022858</v>
+        <v>19.2100827699426</v>
       </c>
       <c r="D25" t="n">
-        <v>24.58304657156612</v>
+        <v>24.60923423145547</v>
       </c>
       <c r="E25" t="n">
-        <v>21.86533643964085</v>
+        <v>22.02487064188486</v>
       </c>
       <c r="F25" t="n">
-        <v>27.89940756070927</v>
+        <v>27.91356365845965</v>
       </c>
       <c r="G25" t="n">
-        <v>25.66412467166121</v>
+        <v>25.66350886681646</v>
       </c>
       <c r="H25" t="n">
-        <v>23.35421642196677</v>
+        <v>23.40817728649088</v>
       </c>
       <c r="I25" t="n">
-        <v>28.11352993202323</v>
+        <v>28.05192744354295</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>22.18649807459069</v>
+        <v>22.03757735870538</v>
       </c>
       <c r="B26" t="n">
-        <v>18.27592188556392</v>
+        <v>18.10504655372385</v>
       </c>
       <c r="C26" t="n">
-        <v>26.03139402550547</v>
+        <v>25.86471620991643</v>
       </c>
       <c r="D26" t="n">
-        <v>33.30693559798538</v>
+        <v>33.0714646916381</v>
       </c>
       <c r="E26" t="n">
-        <v>28.00050081266408</v>
+        <v>28.64901911667043</v>
       </c>
       <c r="F26" t="n">
-        <v>37.87379951713565</v>
+        <v>37.95793622373967</v>
       </c>
       <c r="G26" t="n">
-        <v>33.65061164312014</v>
+        <v>33.47954948989488</v>
       </c>
       <c r="H26" t="n">
-        <v>30.1491386982226</v>
+        <v>30.23466393565914</v>
       </c>
       <c r="I26" t="n">
-        <v>37.30676521319968</v>
+        <v>37.21435513085509</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5.984954426101033</v>
+        <v>5.968702373569309</v>
       </c>
       <c r="B27" t="n">
-        <v>4.014540104400423</v>
+        <v>4.049016374701903</v>
       </c>
       <c r="C27" t="n">
-        <v>8.710101547377731</v>
+        <v>8.441908001775831</v>
       </c>
       <c r="D27" t="n">
-        <v>7.342567487067901</v>
+        <v>7.314395901675588</v>
       </c>
       <c r="E27" t="n">
-        <v>5.491994915117586</v>
+        <v>5.487729745568873</v>
       </c>
       <c r="F27" t="n">
-        <v>9.828990963509822</v>
+        <v>9.63757089696851</v>
       </c>
       <c r="G27" t="n">
-        <v>13.03327127730043</v>
+        <v>13.01972487665282</v>
       </c>
       <c r="H27" t="n">
-        <v>10.01284346497313</v>
+        <v>10.08727399955814</v>
       </c>
       <c r="I27" t="n">
-        <v>17.03234288177143</v>
+        <v>17.09463591763968</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>12.53947902767277</v>
+        <v>12.50221567939224</v>
       </c>
       <c r="B28" t="n">
-        <v>8.696214447285593</v>
+        <v>8.794574934956644</v>
       </c>
       <c r="C28" t="n">
-        <v>16.44492530907297</v>
+        <v>16.33993784413275</v>
       </c>
       <c r="D28" t="n">
-        <v>18.57399033099604</v>
+        <v>18.58986045968992</v>
       </c>
       <c r="E28" t="n">
-        <v>14.64193607783296</v>
+        <v>14.79194040019633</v>
       </c>
       <c r="F28" t="n">
-        <v>22.49142209813477</v>
+        <v>22.41988941144221</v>
       </c>
       <c r="G28" t="n">
-        <v>21.89410165789095</v>
+        <v>21.88615415763805</v>
       </c>
       <c r="H28" t="n">
-        <v>18.36877342678331</v>
+        <v>18.33613148119657</v>
       </c>
       <c r="I28" t="n">
-        <v>25.4676529575844</v>
+        <v>25.46786308058698</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>26.57702843945276</v>
+        <v>26.5960223892096</v>
       </c>
       <c r="B29" t="n">
-        <v>23.04145042070363</v>
+        <v>22.95105391715752</v>
       </c>
       <c r="C29" t="n">
-        <v>30.67341693235254</v>
+        <v>30.62555112547014</v>
       </c>
       <c r="D29" t="n">
-        <v>38.84572902646623</v>
+        <v>38.85796279619299</v>
       </c>
       <c r="E29" t="n">
-        <v>28.02392345339365</v>
+        <v>27.77534753133051</v>
       </c>
       <c r="F29" t="n">
-        <v>48.7952694389179</v>
+        <v>48.67839017574124</v>
       </c>
       <c r="G29" t="n">
-        <v>38.55670552238076</v>
+        <v>38.43493320280695</v>
       </c>
       <c r="H29" t="n">
-        <v>34.11427367124968</v>
+        <v>33.89246579432137</v>
       </c>
       <c r="I29" t="n">
-        <v>43.50605746481382</v>
+        <v>43.39984424180189</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>16.30870586469251</v>
+        <v>16.30565914525068</v>
       </c>
       <c r="B30" t="n">
-        <v>11.91539984548453</v>
+        <v>11.91977147843695</v>
       </c>
       <c r="C30" t="n">
-        <v>21.32594795065797</v>
+        <v>21.42408117705304</v>
       </c>
       <c r="D30" t="n">
-        <v>25.61345078980504</v>
+        <v>25.61045867234101</v>
       </c>
       <c r="E30" t="n">
-        <v>21.4661811526806</v>
+        <v>21.43632272872413</v>
       </c>
       <c r="F30" t="n">
-        <v>30.19702338152779</v>
+        <v>30.45947696094902</v>
       </c>
       <c r="G30" t="n">
-        <v>27.9672992840196</v>
+        <v>28.01382032360312</v>
       </c>
       <c r="H30" t="n">
-        <v>24.36913194820428</v>
+        <v>24.36074899097794</v>
       </c>
       <c r="I30" t="n">
-        <v>31.9020666802975</v>
+        <v>31.95505992233027</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>7.73579316822079</v>
+        <v>7.779639739275913</v>
       </c>
       <c r="B31" t="n">
-        <v>4.97394178407648</v>
+        <v>4.994921936593589</v>
       </c>
       <c r="C31" t="n">
-        <v>11.1428887446725</v>
+        <v>11.25247930559553</v>
       </c>
       <c r="D31" t="n">
-        <v>9.922302138648909</v>
+        <v>9.940679682634356</v>
       </c>
       <c r="E31" t="n">
-        <v>7.211274714333966</v>
+        <v>7.225917136531864</v>
       </c>
       <c r="F31" t="n">
-        <v>12.75994223055361</v>
+        <v>12.89607204097513</v>
       </c>
       <c r="G31" t="n">
-        <v>15.12890729742787</v>
+        <v>15.12036966692636</v>
       </c>
       <c r="H31" t="n">
-        <v>11.73995436978202</v>
+        <v>11.79437897574521</v>
       </c>
       <c r="I31" t="n">
-        <v>18.90503039238775</v>
+        <v>18.85894759850063</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5.938542766401484</v>
+        <v>5.939075057530115</v>
       </c>
       <c r="B32" t="n">
-        <v>4.11021236704882</v>
+        <v>4.230013798789994</v>
       </c>
       <c r="C32" t="n">
-        <v>8.416953554971457</v>
+        <v>8.384859306206957</v>
       </c>
       <c r="D32" t="n">
-        <v>7.267614919967402</v>
+        <v>7.279099515428627</v>
       </c>
       <c r="E32" t="n">
-        <v>5.625011669003426</v>
+        <v>5.705050900213563</v>
       </c>
       <c r="F32" t="n">
-        <v>9.48962658517106</v>
+        <v>9.433796721152317</v>
       </c>
       <c r="G32" t="n">
-        <v>12.5249414275387</v>
+        <v>12.52649902882031</v>
       </c>
       <c r="H32" t="n">
-        <v>9.874011366662295</v>
+        <v>9.955819262621963</v>
       </c>
       <c r="I32" t="n">
-        <v>16.01002180076255</v>
+        <v>16.00657714666817</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>7.783354590060367</v>
+        <v>7.787281598782466</v>
       </c>
       <c r="B33" t="n">
-        <v>5.338318919162948</v>
+        <v>5.352159266724339</v>
       </c>
       <c r="C33" t="n">
-        <v>11.19501745708524</v>
+        <v>11.18621523334145</v>
       </c>
       <c r="D33" t="n">
-        <v>9.960551257560692</v>
+        <v>9.952374640042256</v>
       </c>
       <c r="E33" t="n">
-        <v>7.383337732037148</v>
+        <v>7.333592037717999</v>
       </c>
       <c r="F33" t="n">
-        <v>13.29894738372044</v>
+        <v>13.28142513571551</v>
       </c>
       <c r="G33" t="n">
-        <v>15.18003365058481</v>
+        <v>15.2559875404278</v>
       </c>
       <c r="H33" t="n">
-        <v>11.81337886750961</v>
+        <v>11.83439499864063</v>
       </c>
       <c r="I33" t="n">
-        <v>19.84903516372491</v>
+        <v>19.82980637767442</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>13.35791957864626</v>
+        <v>13.34086938813285</v>
       </c>
       <c r="B34" t="n">
-        <v>9.325276687268303</v>
+        <v>9.202245273014301</v>
       </c>
       <c r="C34" t="n">
-        <v>18.21973440860189</v>
+        <v>18.23412769165657</v>
       </c>
       <c r="D34" t="n">
-        <v>20.20371587201708</v>
+        <v>20.17763936720195</v>
       </c>
       <c r="E34" t="n">
-        <v>15.22297052943793</v>
+        <v>15.22381545027617</v>
       </c>
       <c r="F34" t="n">
-        <v>25.67279304972186</v>
+        <v>25.72232566099339</v>
       </c>
       <c r="G34" t="n">
-        <v>24.46854775262789</v>
+        <v>24.39244042441648</v>
       </c>
       <c r="H34" t="n">
-        <v>19.64091553632778</v>
+        <v>19.6635735925473</v>
       </c>
       <c r="I34" t="n">
-        <v>29.55245450320488</v>
+        <v>29.6071301061335</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>19.49364833529718</v>
+        <v>19.5134829521773</v>
       </c>
       <c r="B35" t="n">
-        <v>15.37493381116544</v>
+        <v>15.38677793739257</v>
       </c>
       <c r="C35" t="n">
-        <v>24.0446218591937</v>
+        <v>24.09022250117376</v>
       </c>
       <c r="D35" t="n">
-        <v>30.56361446118942</v>
+        <v>30.57562987866572</v>
       </c>
       <c r="E35" t="n">
-        <v>26.87924249411285</v>
+        <v>26.81774977273634</v>
       </c>
       <c r="F35" t="n">
-        <v>34.63817540174055</v>
+        <v>34.46698272085828</v>
       </c>
       <c r="G35" t="n">
-        <v>31.73984158669249</v>
+        <v>31.75354160600138</v>
       </c>
       <c r="H35" t="n">
-        <v>28.52002725836676</v>
+        <v>28.57836625036248</v>
       </c>
       <c r="I35" t="n">
-        <v>35.00352489386637</v>
+        <v>35.16324792176884</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>11.95206579243946</v>
+        <v>11.93170292604975</v>
       </c>
       <c r="B36" t="n">
-        <v>8.314580269583486</v>
+        <v>8.43631825753037</v>
       </c>
       <c r="C36" t="n">
-        <v>15.41265975078796</v>
+        <v>15.33639442198876</v>
       </c>
       <c r="D36" t="n">
-        <v>17.56616246668147</v>
+        <v>17.53390074672986</v>
       </c>
       <c r="E36" t="n">
-        <v>14.10070822452992</v>
+        <v>14.03630132156981</v>
       </c>
       <c r="F36" t="n">
-        <v>21.43941997394046</v>
+        <v>21.27784637988142</v>
       </c>
       <c r="G36" t="n">
-        <v>20.68457740826662</v>
+        <v>20.65951546482503</v>
       </c>
       <c r="H36" t="n">
-        <v>17.76184796428158</v>
+        <v>17.73588636132192</v>
       </c>
       <c r="I36" t="n">
-        <v>24.38335217942</v>
+        <v>24.22806586261767</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>23.48357961993386</v>
+        <v>23.27225583949296</v>
       </c>
       <c r="B37" t="n">
-        <v>19.70451924025952</v>
+        <v>19.40786811555804</v>
       </c>
       <c r="C37" t="n">
-        <v>27.20254422504674</v>
+        <v>27.25341559639929</v>
       </c>
       <c r="D37" t="n">
-        <v>35.97869182965804</v>
+        <v>35.43627306905522</v>
       </c>
       <c r="E37" t="n">
-        <v>30.11359293271821</v>
+        <v>30.5922464577176</v>
       </c>
       <c r="F37" t="n">
-        <v>40.68936295182985</v>
+        <v>40.68742374027756</v>
       </c>
       <c r="G37" t="n">
-        <v>35.97151345704923</v>
+        <v>35.66279080556193</v>
       </c>
       <c r="H37" t="n">
-        <v>32.28331281642979</v>
+        <v>32.41619763068072</v>
       </c>
       <c r="I37" t="n">
-        <v>39.68791434193704</v>
+        <v>39.47323290606589</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>7.749021841091121</v>
+        <v>7.755072182790685</v>
       </c>
       <c r="B38" t="n">
-        <v>5.19738992389292</v>
+        <v>5.259051681007135</v>
       </c>
       <c r="C38" t="n">
-        <v>11.21897355208083</v>
+        <v>11.20854076891742</v>
       </c>
       <c r="D38" t="n">
-        <v>9.92718003814762</v>
+        <v>9.926918966954437</v>
       </c>
       <c r="E38" t="n">
-        <v>7.312806334852482</v>
+        <v>7.397721319017201</v>
       </c>
       <c r="F38" t="n">
-        <v>13.45870828470724</v>
+        <v>13.50158984728619</v>
       </c>
       <c r="G38" t="n">
-        <v>15.46479000947791</v>
+        <v>15.38423096419607</v>
       </c>
       <c r="H38" t="n">
-        <v>12.00239316361353</v>
+        <v>11.96123640895905</v>
       </c>
       <c r="I38" t="n">
-        <v>19.70890195566979</v>
+        <v>19.65339893331722</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>16.90054195894031</v>
+        <v>16.94290707703651</v>
       </c>
       <c r="B39" t="n">
-        <v>12.08879502992946</v>
+        <v>12.01274904442925</v>
       </c>
       <c r="C39" t="n">
-        <v>22.48377335336368</v>
+        <v>22.59488794122703</v>
       </c>
       <c r="D39" t="n">
-        <v>27.28961665839557</v>
+        <v>27.385404800415</v>
       </c>
       <c r="E39" t="n">
-        <v>22.59422931466144</v>
+        <v>22.40190500159328</v>
       </c>
       <c r="F39" t="n">
-        <v>33.0023885655412</v>
+        <v>33.163200500172</v>
       </c>
       <c r="G39" t="n">
-        <v>30.03584401128363</v>
+        <v>29.99097029847621</v>
       </c>
       <c r="H39" t="n">
-        <v>25.30258111306632</v>
+        <v>25.29299233476306</v>
       </c>
       <c r="I39" t="n">
-        <v>34.96559397395367</v>
+        <v>35.08190651043936</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>19.46461689966725</v>
+        <v>19.38217894970126</v>
       </c>
       <c r="B40" t="n">
-        <v>16.47705008861725</v>
+        <v>16.24541263708943</v>
       </c>
       <c r="C40" t="n">
-        <v>22.44927636066292</v>
+        <v>22.7728904995778</v>
       </c>
       <c r="D40" t="n">
-        <v>28.74613425970271</v>
+        <v>28.50720594369499</v>
       </c>
       <c r="E40" t="n">
-        <v>24.07388382177527</v>
+        <v>24.16110362555872</v>
       </c>
       <c r="F40" t="n">
-        <v>32.67179008924934</v>
+        <v>32.81416480617879</v>
       </c>
       <c r="G40" t="n">
-        <v>29.00773901219522</v>
+        <v>28.97765446693462</v>
       </c>
       <c r="H40" t="n">
-        <v>25.88010819074034</v>
+        <v>25.99639427957652</v>
       </c>
       <c r="I40" t="n">
-        <v>31.97187837195305</v>
+        <v>31.99220814458724</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>11.33987175547961</v>
+        <v>11.34375002816429</v>
       </c>
       <c r="B41" t="n">
-        <v>8.275819087241043</v>
+        <v>8.259466535782941</v>
       </c>
       <c r="C41" t="n">
-        <v>14.79835235887474</v>
+        <v>14.82244544457159</v>
       </c>
       <c r="D41" t="n">
-        <v>16.64671631157174</v>
+        <v>16.63493009862139</v>
       </c>
       <c r="E41" t="n">
-        <v>13.12475928951602</v>
+        <v>13.1253911725614</v>
       </c>
       <c r="F41" t="n">
-        <v>20.04481391997733</v>
+        <v>20.04702908458824</v>
       </c>
       <c r="G41" t="n">
-        <v>19.45959123747823</v>
+        <v>19.42960012366195</v>
       </c>
       <c r="H41" t="n">
-        <v>16.61162149609266</v>
+        <v>16.6252568303216</v>
       </c>
       <c r="I41" t="n">
-        <v>22.2811899343779</v>
+        <v>22.29588359257033</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>10.17651623461875</v>
+        <v>10.12655334245</v>
       </c>
       <c r="B42" t="n">
-        <v>6.871818405508456</v>
+        <v>6.912152231781937</v>
       </c>
       <c r="C42" t="n">
-        <v>14.68376510235846</v>
+        <v>14.40042208561836</v>
       </c>
       <c r="D42" t="n">
-        <v>14.01175167426917</v>
+        <v>13.96033891556234</v>
       </c>
       <c r="E42" t="n">
-        <v>10.48714546055504</v>
+        <v>10.38503796092985</v>
       </c>
       <c r="F42" t="n">
-        <v>18.18563122174215</v>
+        <v>17.94503523776025</v>
       </c>
       <c r="G42" t="n">
-        <v>18.8844137010238</v>
+        <v>18.93585687524464</v>
       </c>
       <c r="H42" t="n">
-        <v>15.09437640690253</v>
+        <v>15.12750083432096</v>
       </c>
       <c r="I42" t="n">
-        <v>23.1485598358497</v>
+        <v>23.24822039424501</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>16.30870586469251</v>
+        <v>16.29913553569845</v>
       </c>
       <c r="B43" t="n">
-        <v>11.84617190951149</v>
+        <v>11.90751991063881</v>
       </c>
       <c r="C43" t="n">
-        <v>21.28156058579498</v>
+        <v>21.40729613546389</v>
       </c>
       <c r="D43" t="n">
-        <v>25.60764657831057</v>
+        <v>25.60753295833057</v>
       </c>
       <c r="E43" t="n">
-        <v>21.4661811526806</v>
+        <v>21.4247326092261</v>
       </c>
       <c r="F43" t="n">
-        <v>30.20018233759513</v>
+        <v>30.44542622781508</v>
       </c>
       <c r="G43" t="n">
-        <v>27.96419628279022</v>
+        <v>28.01263142632472</v>
       </c>
       <c r="H43" t="n">
-        <v>24.36913194820428</v>
+        <v>24.35743491536425</v>
       </c>
       <c r="I43" t="n">
-        <v>31.86373241237921</v>
+        <v>31.94018146212358</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>9.365381439898325</v>
+        <v>9.380407379335979</v>
       </c>
       <c r="B44" t="n">
-        <v>6.892248426022191</v>
+        <v>6.570815074302804</v>
       </c>
       <c r="C44" t="n">
-        <v>12.6564412890068</v>
+        <v>12.63771338512377</v>
       </c>
       <c r="D44" t="n">
-        <v>12.81660467305169</v>
+        <v>12.83217632014345</v>
       </c>
       <c r="E44" t="n">
-        <v>9.687265637299916</v>
+        <v>9.665783305962947</v>
       </c>
       <c r="F44" t="n">
-        <v>16.3244610686705</v>
+        <v>16.31015705510347</v>
       </c>
       <c r="G44" t="n">
-        <v>16.73853598011548</v>
+        <v>16.73840355119074</v>
       </c>
       <c r="H44" t="n">
-        <v>13.56154680186431</v>
+        <v>13.5235071099091</v>
       </c>
       <c r="I44" t="n">
-        <v>19.98600625520658</v>
+        <v>20.00745318521515</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>10.12480657114341</v>
+        <v>10.22764963530044</v>
       </c>
       <c r="B45" t="n">
-        <v>6.844011683753543</v>
+        <v>6.921017353820002</v>
       </c>
       <c r="C45" t="n">
-        <v>14.68503268521011</v>
+        <v>15.0036317279692</v>
       </c>
       <c r="D45" t="n">
-        <v>13.98382667929586</v>
+        <v>14.09760896070902</v>
       </c>
       <c r="E45" t="n">
-        <v>10.33347123721559</v>
+        <v>10.4666047607186</v>
       </c>
       <c r="F45" t="n">
-        <v>19.24827327537241</v>
+        <v>19.27537074043821</v>
       </c>
       <c r="G45" t="n">
-        <v>19.11381583774005</v>
+        <v>19.28334509429601</v>
       </c>
       <c r="H45" t="n">
-        <v>14.83811239705689</v>
+        <v>14.98134349929501</v>
       </c>
       <c r="I45" t="n">
-        <v>24.99830720332007</v>
+        <v>24.93900931571132</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7.486672787022051</v>
+        <v>7.546657156422132</v>
       </c>
       <c r="B46" t="n">
-        <v>5.061615369912889</v>
+        <v>5.043463064130916</v>
       </c>
       <c r="C46" t="n">
-        <v>10.44119801879862</v>
+        <v>10.6362243034458</v>
       </c>
       <c r="D46" t="n">
-        <v>9.625316909767792</v>
+        <v>9.652361190646911</v>
       </c>
       <c r="E46" t="n">
-        <v>7.17791986424393</v>
+        <v>7.139621037769355</v>
       </c>
       <c r="F46" t="n">
-        <v>12.47851304086435</v>
+        <v>12.51930682001177</v>
       </c>
       <c r="G46" t="n">
-        <v>14.64950451884935</v>
+        <v>14.60987888119356</v>
       </c>
       <c r="H46" t="n">
-        <v>11.59069736700912</v>
+        <v>11.54571227893173</v>
       </c>
       <c r="I46" t="n">
-        <v>18.36527887917094</v>
+        <v>18.25168836011635</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4.64347483511663</v>
+        <v>4.654783343196703</v>
       </c>
       <c r="B47" t="n">
-        <v>3.119253802393243</v>
+        <v>3.131234856659753</v>
       </c>
       <c r="C47" t="n">
-        <v>6.843058768075235</v>
+        <v>6.889012050718135</v>
       </c>
       <c r="D47" t="n">
-        <v>5.620077542622337</v>
+        <v>5.61936620485227</v>
       </c>
       <c r="E47" t="n">
-        <v>4.23500574579852</v>
+        <v>4.222785486304279</v>
       </c>
       <c r="F47" t="n">
-        <v>7.543911400952197</v>
+        <v>7.51050961620924</v>
       </c>
       <c r="G47" t="n">
-        <v>11.25859995005223</v>
+        <v>11.22626754655854</v>
       </c>
       <c r="H47" t="n">
-        <v>8.562962402080155</v>
+        <v>8.556770002277457</v>
       </c>
       <c r="I47" t="n">
-        <v>14.89880870791701</v>
+        <v>14.89394273572224</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>16.841195258482</v>
+        <v>16.84366308784326</v>
       </c>
       <c r="B48" t="n">
-        <v>12.25729431687245</v>
+        <v>12.43341389217207</v>
       </c>
       <c r="C48" t="n">
-        <v>21.81678297589895</v>
+        <v>21.83755389712602</v>
       </c>
       <c r="D48" t="n">
-        <v>26.87974314149957</v>
+        <v>26.96895307937486</v>
       </c>
       <c r="E48" t="n">
-        <v>21.72658930551149</v>
+        <v>21.88197015723492</v>
       </c>
       <c r="F48" t="n">
-        <v>31.95198912361044</v>
+        <v>32.15999569225997</v>
       </c>
       <c r="G48" t="n">
-        <v>29.41841550404778</v>
+        <v>29.43655154609752</v>
       </c>
       <c r="H48" t="n">
-        <v>24.55436604267521</v>
+        <v>24.86112640148502</v>
       </c>
       <c r="I48" t="n">
-        <v>33.78975358169327</v>
+        <v>33.75815048512061</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>18.00362590330627</v>
+        <v>17.88106203519904</v>
       </c>
       <c r="B49" t="n">
-        <v>15.79347306505504</v>
+        <v>15.57620783817139</v>
       </c>
       <c r="C49" t="n">
-        <v>20.75956319360228</v>
+        <v>20.86604310540231</v>
       </c>
       <c r="D49" t="n">
-        <v>26.24038190283168</v>
+        <v>26.06568403642818</v>
       </c>
       <c r="E49" t="n">
-        <v>22.08072769279836</v>
+        <v>22.26671357833235</v>
       </c>
       <c r="F49" t="n">
-        <v>30.4831579564335</v>
+        <v>30.06361762040654</v>
       </c>
       <c r="G49" t="n">
-        <v>26.54854686869707</v>
+        <v>26.42647394810938</v>
       </c>
       <c r="H49" t="n">
-        <v>23.75997834490897</v>
+        <v>23.68963696906108</v>
       </c>
       <c r="I49" t="n">
-        <v>29.46938565252864</v>
+        <v>29.36596638367437</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>23.43392083861518</v>
+        <v>23.26616329442319</v>
       </c>
       <c r="B50" t="n">
-        <v>19.57882744557432</v>
+        <v>19.39067560968725</v>
       </c>
       <c r="C50" t="n">
-        <v>27.21944391379021</v>
+        <v>27.23815692922221</v>
       </c>
       <c r="D50" t="n">
-        <v>35.85569995234732</v>
+        <v>35.46576274908441</v>
       </c>
       <c r="E50" t="n">
-        <v>30.02158561148262</v>
+        <v>30.45161701068532</v>
       </c>
       <c r="F50" t="n">
-        <v>40.6698916259216</v>
+        <v>40.72970473144576</v>
       </c>
       <c r="G50" t="n">
-        <v>35.91027913265877</v>
+        <v>35.66388457393425</v>
       </c>
       <c r="H50" t="n">
-        <v>32.3529099193203</v>
+        <v>32.42368379199785</v>
       </c>
       <c r="I50" t="n">
-        <v>39.5664838575757</v>
+        <v>39.47250485664306</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>17.18576921413894</v>
+        <v>17.26431515049443</v>
       </c>
       <c r="B51" t="n">
-        <v>14.91236363244012</v>
+        <v>15.01335104162213</v>
       </c>
       <c r="C51" t="n">
-        <v>19.85712993068913</v>
+        <v>19.93283203272406</v>
       </c>
       <c r="D51" t="n">
-        <v>23.82887739104562</v>
+        <v>24.00601331614642</v>
       </c>
       <c r="E51" t="n">
-        <v>15.28846979838262</v>
+        <v>15.27612940094338</v>
       </c>
       <c r="F51" t="n">
-        <v>33.02765795254604</v>
+        <v>32.82706420933652</v>
       </c>
       <c r="G51" t="n">
-        <v>23.95414155920652</v>
+        <v>24.01500255057405</v>
       </c>
       <c r="H51" t="n">
-        <v>20.33512915470196</v>
+        <v>20.35854100696334</v>
       </c>
       <c r="I51" t="n">
-        <v>27.44042117815804</v>
+        <v>27.51438461733069</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>7.467717178588251</v>
+        <v>7.473076357316443</v>
       </c>
       <c r="B52" t="n">
-        <v>5.24308831875091</v>
+        <v>4.994234935149581</v>
       </c>
       <c r="C52" t="n">
-        <v>10.60998458992488</v>
+        <v>10.55304448632896</v>
       </c>
       <c r="D52" t="n">
-        <v>9.556270245297856</v>
+        <v>9.561663716026397</v>
       </c>
       <c r="E52" t="n">
-        <v>7.087134562429478</v>
+        <v>7.044762675634558</v>
       </c>
       <c r="F52" t="n">
-        <v>12.4519589114476</v>
+        <v>12.41903500260363</v>
       </c>
       <c r="G52" t="n">
-        <v>14.20278744067856</v>
+        <v>14.21923855430516</v>
       </c>
       <c r="H52" t="n">
-        <v>11.3567655370842</v>
+        <v>11.29043941839948</v>
       </c>
       <c r="I52" t="n">
-        <v>17.45819755588028</v>
+        <v>17.5137634370501</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>17.0374101208399</v>
+        <v>17.07906715675431</v>
       </c>
       <c r="B53" t="n">
-        <v>12.16031807370226</v>
+        <v>12.17987106728053</v>
       </c>
       <c r="C53" t="n">
-        <v>22.67941361850075</v>
+        <v>22.86404043226321</v>
       </c>
       <c r="D53" t="n">
-        <v>27.19940975733675</v>
+        <v>27.41912720222264</v>
       </c>
       <c r="E53" t="n">
-        <v>22.61061352287519</v>
+        <v>22.32774428851396</v>
       </c>
       <c r="F53" t="n">
-        <v>33.111420270548</v>
+        <v>33.33836423796652</v>
       </c>
       <c r="G53" t="n">
-        <v>30.03770380962174</v>
+        <v>30.04232741867244</v>
       </c>
       <c r="H53" t="n">
-        <v>25.44362616838743</v>
+        <v>25.38402853186587</v>
       </c>
       <c r="I53" t="n">
-        <v>34.81543304608271</v>
+        <v>35.0727189473636</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>23.84911088479209</v>
+        <v>23.82837981934344</v>
       </c>
       <c r="B54" t="n">
-        <v>20.51628586991848</v>
+        <v>20.52383845872862</v>
       </c>
       <c r="C54" t="n">
-        <v>27.48519434810472</v>
+        <v>27.46875390676352</v>
       </c>
       <c r="D54" t="n">
-        <v>34.19668230320892</v>
+        <v>34.35848693821551</v>
       </c>
       <c r="E54" t="n">
-        <v>24.30260124972897</v>
+        <v>24.09308451921043</v>
       </c>
       <c r="F54" t="n">
-        <v>44.44845147205083</v>
+        <v>44.5549987645003</v>
       </c>
       <c r="G54" t="n">
-        <v>34.01637623222589</v>
+        <v>34.01189804243508</v>
       </c>
       <c r="H54" t="n">
-        <v>30.2104884965376</v>
+        <v>30.0053569851</v>
       </c>
       <c r="I54" t="n">
-        <v>38.03643055716591</v>
+        <v>37.78737185729371</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>22.13979580248963</v>
+        <v>22.03392329192107</v>
       </c>
       <c r="B55" t="n">
-        <v>18.35976613574368</v>
+        <v>18.38431239308309</v>
       </c>
       <c r="C55" t="n">
-        <v>26.04072596087581</v>
+        <v>26.08453412585341</v>
       </c>
       <c r="D55" t="n">
-        <v>33.35013889893976</v>
+        <v>33.22057334215381</v>
       </c>
       <c r="E55" t="n">
-        <v>27.85750863427619</v>
+        <v>28.16207760646044</v>
       </c>
       <c r="F55" t="n">
-        <v>38.03988543458263</v>
+        <v>38.28721504625815</v>
       </c>
       <c r="G55" t="n">
-        <v>33.67226378688211</v>
+        <v>33.532675837508</v>
       </c>
       <c r="H55" t="n">
-        <v>30.27294898202961</v>
+        <v>30.29033186678463</v>
       </c>
       <c r="I55" t="n">
-        <v>37.11589269159445</v>
+        <v>37.02011017995864</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>7.763193682239805</v>
+        <v>7.738132826222005</v>
       </c>
       <c r="B56" t="n">
-        <v>5.269759489034143</v>
+        <v>5.305084828006702</v>
       </c>
       <c r="C56" t="n">
-        <v>10.91703250719585</v>
+        <v>10.85484983884346</v>
       </c>
       <c r="D56" t="n">
-        <v>9.94859548128707</v>
+        <v>9.937961624620256</v>
       </c>
       <c r="E56" t="n">
-        <v>7.378215113428928</v>
+        <v>7.444057781856462</v>
       </c>
       <c r="F56" t="n">
-        <v>12.66389841293514</v>
+        <v>12.87895773984648</v>
       </c>
       <c r="G56" t="n">
-        <v>15.05385062444697</v>
+        <v>15.09912366775067</v>
       </c>
       <c r="H56" t="n">
-        <v>11.79159789746807</v>
+        <v>11.91868060991431</v>
       </c>
       <c r="I56" t="n">
-        <v>19.23139657524712</v>
+        <v>19.26298470977218</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5.944905710356995</v>
+        <v>5.937920571465064</v>
       </c>
       <c r="B57" t="n">
-        <v>4.093324239584833</v>
+        <v>4.22753642510337</v>
       </c>
       <c r="C57" t="n">
-        <v>8.481341578914986</v>
+        <v>8.387755322438878</v>
       </c>
       <c r="D57" t="n">
-        <v>7.281006862028809</v>
+        <v>7.275433211357544</v>
       </c>
       <c r="E57" t="n">
-        <v>5.626143834451793</v>
+        <v>5.696851279143978</v>
       </c>
       <c r="F57" t="n">
-        <v>9.605675650277611</v>
+        <v>9.436085873325677</v>
       </c>
       <c r="G57" t="n">
-        <v>12.52696597433476</v>
+        <v>12.52220551253195</v>
       </c>
       <c r="H57" t="n">
-        <v>9.908887772676776</v>
+        <v>9.939695082816435</v>
       </c>
       <c r="I57" t="n">
-        <v>16.01559673730176</v>
+        <v>15.99745916930492</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>23.46915662392839</v>
+        <v>23.21719017451952</v>
       </c>
       <c r="B58" t="n">
-        <v>19.7919207015314</v>
+        <v>19.52703671952261</v>
       </c>
       <c r="C58" t="n">
-        <v>27.18444771066885</v>
+        <v>27.3490100183754</v>
       </c>
       <c r="D58" t="n">
-        <v>36.1497501999538</v>
+        <v>35.61634089090504</v>
       </c>
       <c r="E58" t="n">
-        <v>30.16025585513941</v>
+        <v>30.64798337119841</v>
       </c>
       <c r="F58" t="n">
-        <v>40.70451266619582</v>
+        <v>40.82831555203886</v>
       </c>
       <c r="G58" t="n">
-        <v>35.94550754424221</v>
+        <v>35.66611089410162</v>
       </c>
       <c r="H58" t="n">
-        <v>32.25446878699944</v>
+        <v>32.3383487117088</v>
       </c>
       <c r="I58" t="n">
-        <v>39.64845719242071</v>
+        <v>39.47532166134906</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>9.938273905413034</v>
+        <v>9.951421631742049</v>
       </c>
       <c r="B59" t="n">
-        <v>6.787485096310002</v>
+        <v>6.878779038000779</v>
       </c>
       <c r="C59" t="n">
-        <v>13.35724194794064</v>
+        <v>13.52027799716892</v>
       </c>
       <c r="D59" t="n">
-        <v>13.66777335279469</v>
+        <v>13.64884994298411</v>
       </c>
       <c r="E59" t="n">
-        <v>10.31207750185989</v>
+        <v>10.26574680659873</v>
       </c>
       <c r="F59" t="n">
-        <v>16.9654230306314</v>
+        <v>17.04819877756182</v>
       </c>
       <c r="G59" t="n">
-        <v>18.32334930892031</v>
+        <v>18.29504666128803</v>
       </c>
       <c r="H59" t="n">
-        <v>14.33828382534083</v>
+        <v>14.60200693713825</v>
       </c>
       <c r="I59" t="n">
-        <v>21.87661687123001</v>
+        <v>21.7542694550958</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>25.5088676203233</v>
+        <v>25.67044578664055</v>
       </c>
       <c r="B60" t="n">
-        <v>22.47443494086568</v>
+        <v>22.40060977371052</v>
       </c>
       <c r="C60" t="n">
-        <v>28.7128497293898</v>
+        <v>29.27333156757635</v>
       </c>
       <c r="D60" t="n">
-        <v>36.54855562370874</v>
+        <v>37.25239646710076</v>
       </c>
       <c r="E60" t="n">
-        <v>26.43409942132154</v>
+        <v>26.37437223548298</v>
       </c>
       <c r="F60" t="n">
-        <v>47.40356862330012</v>
+        <v>47.13578918536382</v>
       </c>
       <c r="G60" t="n">
-        <v>36.3901228271982</v>
+        <v>36.87406449557795</v>
       </c>
       <c r="H60" t="n">
-        <v>32.09595936994612</v>
+        <v>32.27464925577979</v>
       </c>
       <c r="I60" t="n">
-        <v>40.63140742700797</v>
+        <v>41.28182190200391</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>7.786529180345034</v>
+        <v>7.789734890130642</v>
       </c>
       <c r="B61" t="n">
-        <v>5.341610826391335</v>
+        <v>5.346905435738262</v>
       </c>
       <c r="C61" t="n">
-        <v>11.2450126980134</v>
+        <v>11.12167537296713</v>
       </c>
       <c r="D61" t="n">
-        <v>9.994471821076306</v>
+        <v>9.975367981302181</v>
       </c>
       <c r="E61" t="n">
-        <v>7.421321559567216</v>
+        <v>7.415746367312559</v>
       </c>
       <c r="F61" t="n">
-        <v>13.27164872590202</v>
+        <v>13.06185782140153</v>
       </c>
       <c r="G61" t="n">
-        <v>15.35059922779539</v>
+        <v>15.44913565943949</v>
       </c>
       <c r="H61" t="n">
-        <v>11.9891491289617</v>
+        <v>12.08494153493039</v>
       </c>
       <c r="I61" t="n">
-        <v>19.8891653147005</v>
+        <v>19.88639935516053</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>10.03538107537522</v>
+        <v>10.04995591226966</v>
       </c>
       <c r="B62" t="n">
-        <v>6.777916560119099</v>
+        <v>6.85628780442065</v>
       </c>
       <c r="C62" t="n">
-        <v>14.62104834225946</v>
+        <v>14.36205731389719</v>
       </c>
       <c r="D62" t="n">
-        <v>13.60639540544072</v>
+        <v>13.81715876183107</v>
       </c>
       <c r="E62" t="n">
-        <v>10.42847824758425</v>
+        <v>10.24621404957</v>
       </c>
       <c r="F62" t="n">
-        <v>17.65951564823248</v>
+        <v>17.66197967446946</v>
       </c>
       <c r="G62" t="n">
-        <v>18.53904062945396</v>
+        <v>18.73519716269706</v>
       </c>
       <c r="H62" t="n">
-        <v>14.86889868337291</v>
+        <v>14.92091270801811</v>
       </c>
       <c r="I62" t="n">
-        <v>22.73383824560402</v>
+        <v>22.85504855183077</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>7.736589832338536</v>
+        <v>7.6636920435874</v>
       </c>
       <c r="B63" t="n">
-        <v>5.191654805420524</v>
+        <v>5.146523333789568</v>
       </c>
       <c r="C63" t="n">
-        <v>11.4276524386334</v>
+        <v>11.15627341091526</v>
       </c>
       <c r="D63" t="n">
-        <v>9.963089140779394</v>
+        <v>9.921032949390177</v>
       </c>
       <c r="E63" t="n">
-        <v>7.386425623925558</v>
+        <v>7.450546127073792</v>
       </c>
       <c r="F63" t="n">
-        <v>13.55765295803688</v>
+        <v>13.38435600546636</v>
       </c>
       <c r="G63" t="n">
-        <v>15.38311820323512</v>
+        <v>15.35756702670755</v>
       </c>
       <c r="H63" t="n">
-        <v>11.98146090674801</v>
+        <v>11.919358364344</v>
       </c>
       <c r="I63" t="n">
-        <v>20.40455397254019</v>
+        <v>20.46468888968099</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>25.52643343410396</v>
+        <v>25.66508992109127</v>
       </c>
       <c r="B64" t="n">
-        <v>22.38650157510079</v>
+        <v>22.32976377718238</v>
       </c>
       <c r="C64" t="n">
-        <v>28.72913122912385</v>
+        <v>29.28648834054935</v>
       </c>
       <c r="D64" t="n">
-        <v>36.51244953127829</v>
+        <v>37.25838023795188</v>
       </c>
       <c r="E64" t="n">
-        <v>26.36437524418875</v>
+        <v>26.25253699293664</v>
       </c>
       <c r="F64" t="n">
-        <v>47.11009828448763</v>
+        <v>46.94783326201478</v>
       </c>
       <c r="G64" t="n">
-        <v>36.40132969158519</v>
+        <v>36.9132885209324</v>
       </c>
       <c r="H64" t="n">
-        <v>32.09595936994612</v>
+        <v>32.34917427913055</v>
       </c>
       <c r="I64" t="n">
-        <v>40.66538928542345</v>
+        <v>41.33584099035807</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5.815961707851921</v>
+        <v>5.8105566537437</v>
       </c>
       <c r="B65" t="n">
-        <v>3.950655437586436</v>
+        <v>4.025566847251376</v>
       </c>
       <c r="C65" t="n">
-        <v>8.185171683886614</v>
+        <v>8.122168142323677</v>
       </c>
       <c r="D65" t="n">
-        <v>7.13806001286838</v>
+        <v>7.130931279054518</v>
       </c>
       <c r="E65" t="n">
-        <v>5.377768901274127</v>
+        <v>5.398210928338107</v>
       </c>
       <c r="F65" t="n">
-        <v>9.362859790872795</v>
+        <v>9.295144299323683</v>
       </c>
       <c r="G65" t="n">
-        <v>12.3005907858018</v>
+        <v>12.29966986075552</v>
       </c>
       <c r="H65" t="n">
-        <v>9.615168930780255</v>
+        <v>9.61427016828025</v>
       </c>
       <c r="I65" t="n">
-        <v>15.24512746052817</v>
+        <v>15.2264181634325</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>13.17890015184211</v>
+        <v>13.24709634506586</v>
       </c>
       <c r="B66" t="n">
-        <v>9.161260211492733</v>
+        <v>9.348116060890039</v>
       </c>
       <c r="C66" t="n">
-        <v>17.80795196329327</v>
+        <v>17.71458253999986</v>
       </c>
       <c r="D66" t="n">
-        <v>19.97551196328929</v>
+        <v>20.07172154512559</v>
       </c>
       <c r="E66" t="n">
-        <v>15.23622053330631</v>
+        <v>15.23343658755162</v>
       </c>
       <c r="F66" t="n">
-        <v>25.35165914064203</v>
+        <v>25.31944872473327</v>
       </c>
       <c r="G66" t="n">
-        <v>24.08909065025809</v>
+        <v>24.15808888890725</v>
       </c>
       <c r="H66" t="n">
-        <v>19.57992173799665</v>
+        <v>19.61003756791657</v>
       </c>
       <c r="I66" t="n">
-        <v>29.07328441096864</v>
+        <v>28.99025289358325</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>12.99881639146523</v>
+        <v>13.011025153521</v>
       </c>
       <c r="B67" t="n">
-        <v>8.99823201158298</v>
+        <v>8.959633052467961</v>
       </c>
       <c r="C67" t="n">
-        <v>17.99613909347651</v>
+        <v>17.94905302373843</v>
       </c>
       <c r="D67" t="n">
-        <v>19.49009570337315</v>
+        <v>19.44135199142913</v>
       </c>
       <c r="E67" t="n">
-        <v>14.76246556475921</v>
+        <v>14.67831344811546</v>
       </c>
       <c r="F67" t="n">
-        <v>24.90190239041199</v>
+        <v>25.03460642139101</v>
       </c>
       <c r="G67" t="n">
-        <v>23.25944122455825</v>
+        <v>23.26256847940536</v>
       </c>
       <c r="H67" t="n">
-        <v>18.98913147500478</v>
+        <v>18.84431038043359</v>
       </c>
       <c r="I67" t="n">
-        <v>28.07132938867785</v>
+        <v>28.17623413304713</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>20.6687502456073</v>
+        <v>20.70008173986655</v>
       </c>
       <c r="B68" t="n">
-        <v>17.38389167063738</v>
+        <v>17.23373552658244</v>
       </c>
       <c r="C68" t="n">
-        <v>24.15874975277465</v>
+        <v>23.96601370765899</v>
       </c>
       <c r="D68" t="n">
-        <v>30.97016347158158</v>
+        <v>30.93900452165914</v>
       </c>
       <c r="E68" t="n">
-        <v>26.25194755119592</v>
+        <v>26.29659982776936</v>
       </c>
       <c r="F68" t="n">
-        <v>35.8695628375273</v>
+        <v>35.78552475352838</v>
       </c>
       <c r="G68" t="n">
-        <v>31.20786341159052</v>
+        <v>31.2603160667445</v>
       </c>
       <c r="H68" t="n">
-        <v>28.06430628851468</v>
+        <v>28.03925776335601</v>
       </c>
       <c r="I68" t="n">
-        <v>34.57185694178246</v>
+        <v>34.41757448647083</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>4.612968294199061</v>
+        <v>4.580111995011808</v>
       </c>
       <c r="B69" t="n">
-        <v>3.134625410716655</v>
+        <v>3.073058321170196</v>
       </c>
       <c r="C69" t="n">
-        <v>6.815788068593934</v>
+        <v>6.762797283386306</v>
       </c>
       <c r="D69" t="n">
-        <v>5.595057473856905</v>
+        <v>5.568027241647179</v>
       </c>
       <c r="E69" t="n">
-        <v>4.227607363472128</v>
+        <v>4.256373719903787</v>
       </c>
       <c r="F69" t="n">
-        <v>7.521343008274894</v>
+        <v>7.490880614812395</v>
       </c>
       <c r="G69" t="n">
-        <v>11.16052300230961</v>
+        <v>11.20988611810075</v>
       </c>
       <c r="H69" t="n">
-        <v>8.599180656211967</v>
+        <v>8.592931826395729</v>
       </c>
       <c r="I69" t="n">
-        <v>14.94355838560615</v>
+        <v>14.84046923715235</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>19.45130797640308</v>
+        <v>19.33144175070621</v>
       </c>
       <c r="B70" t="n">
-        <v>16.48080527754793</v>
+        <v>16.23722673780814</v>
       </c>
       <c r="C70" t="n">
-        <v>22.38720654997448</v>
+        <v>22.44550036506512</v>
       </c>
       <c r="D70" t="n">
-        <v>28.79100050584888</v>
+        <v>28.44766046081103</v>
       </c>
       <c r="E70" t="n">
-        <v>24.0402326572082</v>
+        <v>23.92337541496948</v>
       </c>
       <c r="F70" t="n">
-        <v>32.38555254624358</v>
+        <v>32.328168869013</v>
       </c>
       <c r="G70" t="n">
-        <v>29.02032508292437</v>
+        <v>28.96796284812418</v>
       </c>
       <c r="H70" t="n">
-        <v>25.86536590165825</v>
+        <v>26.06075568593375</v>
       </c>
       <c r="I70" t="n">
-        <v>32.0120723575717</v>
+        <v>32.04136473664445</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>13.42067142876712</v>
+        <v>13.3817539194992</v>
       </c>
       <c r="B71" t="n">
-        <v>10.53345803497382</v>
+        <v>10.4745199685897</v>
       </c>
       <c r="C71" t="n">
-        <v>16.17287667594611</v>
+        <v>16.16350147123181</v>
       </c>
       <c r="D71" t="n">
-        <v>20.06929598981148</v>
+        <v>20.06167327462988</v>
       </c>
       <c r="E71" t="n">
-        <v>17.37176911828849</v>
+        <v>17.32462388217813</v>
       </c>
       <c r="F71" t="n">
-        <v>22.90936039087807</v>
+        <v>22.892205612472</v>
       </c>
       <c r="G71" t="n">
-        <v>21.92291777604008</v>
+        <v>21.9218089921281</v>
       </c>
       <c r="H71" t="n">
-        <v>19.61222129977832</v>
+        <v>19.63263932605122</v>
       </c>
       <c r="I71" t="n">
-        <v>24.32468600491408</v>
+        <v>24.33569769588165</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>14.98352575491754</v>
+        <v>14.95194690821865</v>
       </c>
       <c r="B72" t="n">
-        <v>11.34783607355279</v>
+        <v>11.27752941240716</v>
       </c>
       <c r="C72" t="n">
-        <v>18.67172309503091</v>
+        <v>18.67048191518871</v>
       </c>
       <c r="D72" t="n">
-        <v>23.20498100489026</v>
+        <v>23.15122731679353</v>
       </c>
       <c r="E72" t="n">
-        <v>20.09401349605763</v>
+        <v>20.06378625055872</v>
       </c>
       <c r="F72" t="n">
-        <v>26.87541175269952</v>
+        <v>26.85076694407353</v>
       </c>
       <c r="G72" t="n">
-        <v>25.26169521326387</v>
+        <v>25.2722654485856</v>
       </c>
       <c r="H72" t="n">
-        <v>22.19517825178883</v>
+        <v>22.17586048352434</v>
       </c>
       <c r="I72" t="n">
-        <v>28.47871951108852</v>
+        <v>28.29097018964249</v>
       </c>
     </row>
   </sheetData>
